--- a/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B96" s="65">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
